--- a/resources/experiment 1/metrics/R2/average time/Microalbuminuria.xlsx
+++ b/resources/experiment 1/metrics/R2/average time/Microalbuminuria.xlsx
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9971061128048714</v>
+        <v>0.9969767486873989</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9971061128048714</v>
+        <v>0.997255990073923</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9971061128048714</v>
+        <v>0.996864189913787</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9984976313340758</v>
+        <v>0.9968166501530092</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9984976313340758</v>
+        <v>0.9971960380038718</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9984976313340758</v>
+        <v>0.9971574624206325</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9900786007922985</v>
+        <v>0.9982917352888737</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9900786007922985</v>
+        <v>0.9980344099994461</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9900786007922985</v>
+        <v>0.9979167009397355</v>
       </c>
     </row>
   </sheetData>
